--- a/TC.xlsx
+++ b/TC.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="positive test case" sheetId="1" r:id="rId1"/>
+    <sheet name="negative test case" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t xml:space="preserve">Test case ID </t>
   </si>
@@ -39,9 +38,6 @@
     <t>Expected  results</t>
   </si>
   <si>
-    <t>Actual results</t>
-  </si>
-  <si>
     <t>Introduce in [Last name] 'Garstea'</t>
   </si>
   <si>
@@ -54,9 +50,6 @@
     <t xml:space="preserve"> the [Title] 'Miss' is selected</t>
   </si>
   <si>
-    <t>Introduce in [Date of birth] '04.06.1990'</t>
-  </si>
-  <si>
     <t>Select 'Female' checkbox from [Gender]</t>
   </si>
   <si>
@@ -81,9 +74,6 @@
     <t>in [Last name] section 'Garstea' is introduced</t>
   </si>
   <si>
-    <t>in [Date of birth] section '04.06.1990' is introduced</t>
-  </si>
-  <si>
     <t>Female' is selected from [Gender]</t>
   </si>
   <si>
@@ -100,6 +90,83 @@
   </si>
   <si>
     <t>60' is selected from [Retirement age] section</t>
+  </si>
+  <si>
+    <t>in [Date of birth] section '04.08.1990' is introduced</t>
+  </si>
+  <si>
+    <t>Introduce in [Date of birth] '04.08.1990'</t>
+  </si>
+  <si>
+    <t>Introduce in [Email address] section 'irina.garstea026@gmail.com'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irina.garstea026@gmail.com' introduced in  [Email address] section </t>
+  </si>
+  <si>
+    <t>Introduce in [Phone number] section '+37369197677'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+37369197677' introduced in [Phone number] section </t>
+  </si>
+  <si>
+    <t>From [How did you hear from us] section select 'Recommendation from a friend'</t>
+  </si>
+  <si>
+    <t>Press [Continue]</t>
+  </si>
+  <si>
+    <t>[Continue] is pressed</t>
+  </si>
+  <si>
+    <t>Test the profile registration form (negative test case)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select from [Nationality] 'Moldova' </t>
+  </si>
+  <si>
+    <t>From [Nationality] 'Moldova' is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At [Moldova National Passport Number] select 'I do not have a National Passport Number' </t>
+  </si>
+  <si>
+    <t>Introduce in [House number or name] section 'Calea Iesilor 8'</t>
+  </si>
+  <si>
+    <t>Introduce in [Postcode] section 'MD2069'</t>
+  </si>
+  <si>
+    <t>in  [Postcode] section 'MD2069' is introduced</t>
+  </si>
+  <si>
+    <t>in  [House number or name] 'Calea Iesilor 8' is introduced</t>
+  </si>
+  <si>
+    <t>Leave [Title] section unchecked</t>
+  </si>
+  <si>
+    <t>[Title] section left unchecked</t>
+  </si>
+  <si>
+    <t>Leave [Phone number] section blank</t>
+  </si>
+  <si>
+    <t>[Phone number] section left blank</t>
+  </si>
+  <si>
+    <t>[Continue] is pressed. Error message 'Sorry, but some of the form is incomplete - Please review the following points:
+Please select your title
+Please enter your phone number' appeared</t>
+  </si>
+  <si>
+    <t>From [How did you hear from us] section  'Recommendation from a friend' is selected</t>
+  </si>
+  <si>
+    <t>From [How did you hear from us] section 'Recommendation from a friend' is selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'I do not have a National Passport Number' is selected at [Moldova National Passport Number] section</t>
   </si>
 </sst>
 </file>
@@ -131,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -202,11 +269,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -229,11 +318,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,25 +646,23 @@
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5">
+      <c r="C2" s="17"/>
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,22 +670,21 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
@@ -598,145 +694,204 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>11</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>12</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>17</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>18</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -746,24 +901,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>15</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>17</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
+        <v>18</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>